--- a/PLANTILLAS APLICATIVO/GRUPOS I+D.xlsx
+++ b/PLANTILLAS APLICATIVO/GRUPOS I+D.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Personal\Documents\000 C-STAR\AES CHIVOR\CARACTERIZACION\PLANTILLAS APLICATIVO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354A01DF-BA98-417B-B606-F14FE086F3B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4DF629-48E2-4F72-A837-49F1B389BBD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{DEFDC74C-B37E-4B3C-A1CC-5641EE403725}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{DEFDC74C-B37E-4B3C-A1CC-5641EE403725}"/>
   </bookViews>
   <sheets>
     <sheet name="Grupos por programa nacional" sheetId="1" r:id="rId1"/>
     <sheet name="Grupos por departamento" sheetId="2" r:id="rId2"/>
+    <sheet name="Produccion de grupos" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,42 +33,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
-  <si>
-    <t>Programa nacional de CTeI</t>
-  </si>
-  <si>
-    <t>Ambos</t>
-  </si>
-  <si>
-    <t>Codigo del grupo</t>
-  </si>
-  <si>
-    <t>Nombre del grupo</t>
-  </si>
-  <si>
-    <t>Lider</t>
-  </si>
-  <si>
-    <t>Estado/Categoria</t>
-  </si>
-  <si>
-    <t>Principal</t>
-  </si>
-  <si>
-    <t>Secundario</t>
-  </si>
-  <si>
-    <t>Clasificado en</t>
-  </si>
-  <si>
-    <t>Departamento</t>
-  </si>
-  <si>
-    <t>Cantidad de grupos</t>
-  </si>
-  <si>
-    <t>Año</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+  <si>
+    <t>AÑO</t>
+  </si>
+  <si>
+    <t>PROGRAMA NACIONAL DE CTEI</t>
+  </si>
+  <si>
+    <t>PRINCIPAL</t>
+  </si>
+  <si>
+    <t>SECUNDARIO</t>
+  </si>
+  <si>
+    <t>AMBOS</t>
+  </si>
+  <si>
+    <t>CODIGO DEL GRUPO</t>
+  </si>
+  <si>
+    <t>NOMBRE DEL GRUPO</t>
+  </si>
+  <si>
+    <t>LIDER</t>
+  </si>
+  <si>
+    <t>ESTADO/CATEGORIA</t>
+  </si>
+  <si>
+    <t>CLASIFICADO EN</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO</t>
+  </si>
+  <si>
+    <t>CANTIDAD DE GRUPOS</t>
+  </si>
+  <si>
+    <t>CANTIDAD DE PROYECTOS CTEI PRESENTADOS</t>
+  </si>
+  <si>
+    <t>NOMBRE DEL PROYECTO</t>
+  </si>
+  <si>
+    <t>CONVOCATORIA O INSTITUCION DONDE SE PRESENTO</t>
+  </si>
+  <si>
+    <t>ESTADO DEL PROYECTO</t>
+  </si>
+  <si>
+    <t>MUNICIPIO</t>
+  </si>
+  <si>
+    <t>TIPO DE PUBLICACION</t>
   </si>
 </sst>
 </file>
@@ -85,7 +104,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -100,7 +119,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor rgb="FFC6E0B4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -132,11 +151,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,93 +471,407 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BFEEE75-34FD-4970-AD66-59DB341DA214}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8818B539-E3FF-4703-ADDE-93298229546F}">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8818B539-E3FF-4703-ADDE-93298229546F}">
-  <dimension ref="A1:H1"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B8DBE7-672B-4C1A-9C4C-AD270ED55D95}">
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
